--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437838.0646389918</v>
+        <v>439542.8206532585</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006065</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5668630.558955725</v>
+        <v>5668630.558955722</v>
       </c>
     </row>
     <row r="11">
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
@@ -735,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>167.0383293154539</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -856,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -990,13 +992,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>8.583694061602047</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>110.9174757594852</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1142,55 +1144,55 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1212,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1391,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -1427,7 +1429,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>100.3796369526212</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>56.69886123260541</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,25 +1499,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1549,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,10 +1572,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1652,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>29.90723668598428</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1704,10 +1706,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1804,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1865,7 +1867,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1938,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -1980,10 +1982,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>35.00246782997241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2041,19 +2043,19 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2081,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2123,31 +2125,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2205,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2239,64 +2241,64 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2321,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2403,19 +2405,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>62.88143347497287</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>10.15822114686772</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2515,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,10 +2572,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2597,25 +2599,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>70.34400780127524</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2634,16 +2636,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2685,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>85.31372784089217</v>
       </c>
       <c r="U27" t="n">
-        <v>149.9109802060838</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2764,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2798,64 +2800,64 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>9.234466016111892</v>
-      </c>
-      <c r="S29" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T29" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,31 +2870,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>56.69886123260541</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>96.52034192125602</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2928,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3038,55 +3040,55 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>241.0142888776591</v>
@@ -3108,19 +3110,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>59.06278308719922</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3159,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="V35" t="n">
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,16 +3347,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>104.7383832473596</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>84.93511614314649</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,10 +3401,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3433,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3500,31 +3502,31 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>50.46697834767995</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3600,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>184.6308886574542</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>41.3440244574145</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3721,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3746,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
         <v>241.0142888776591</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>59.24636080559989</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>81.82639095666912</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3986,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4068,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>199.4488619073164</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="46">
@@ -4144,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4352,16 +4354,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
         <v>749.627473042513</v>
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4413,16 +4415,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>694.1620408963968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>486.3105406908639</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>278.55024192591</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4504,13 +4506,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4610,7 +4612,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
         <v>656.0584510084244</v>
@@ -4689,7 +4691,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>955.386757468614</v>
       </c>
     </row>
     <row r="7">
@@ -4720,7 +4722,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4893,10 +4895,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5065,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>812.6742080953335</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S11" t="n">
-        <v>601.5428246748836</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T11" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U11" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>251.7598820467572</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>77.30685276563017</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5145,25 +5147,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>419.9752190668252</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5218,31 +5220,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="14">
@@ -5300,22 +5302,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U14" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V14" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
         <v>19.28114311021272</v>
@@ -5331,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5400,7 +5402,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="16">
@@ -5452,13 +5454,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
         <v>19.28114311021272</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V18" t="n">
-        <v>223.7040404982626</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5689,16 +5691,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>509.4769954460863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>266.0282188019862</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>22.57944215788615</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X20" t="n">
-        <v>22.57944215788615</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="21">
@@ -5844,7 +5846,7 @@
         <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,19 +5855,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>913.4938269565423</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U21" t="n">
-        <v>913.4938269565423</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V21" t="n">
-        <v>678.3417187247995</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W21" t="n">
         <v>434.8929420806995</v>
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5944,16 +5946,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6011,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U23" t="n">
-        <v>495.259035872464</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V23" t="n">
-        <v>495.259035872464</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W23" t="n">
-        <v>495.259035872464</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>964.0571555106362</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C24" t="n">
-        <v>789.6041262295092</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D24" t="n">
-        <v>640.669716568258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>481.4322615628025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>196.166878172303</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>82.7977425798823</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6072,16 +6074,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>953.7963260693557</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>953.7963260693557</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>953.7963260693557</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y24" t="n">
-        <v>964.0571555106362</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="25">
@@ -6163,31 +6165,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.8157010833278</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C27" t="n">
-        <v>165.8157010833278</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D27" t="n">
-        <v>165.8157010833278</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6309,10 +6311,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
         <v>781.4136778972854</v>
@@ -6333,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="U27" t="n">
-        <v>812.6319229792384</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="V27" t="n">
-        <v>577.4798147474958</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="W27" t="n">
-        <v>334.0310381033958</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="X27" t="n">
-        <v>334.0310381033958</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="Y27" t="n">
-        <v>334.0310381033958</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C29" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>954.7294120600181</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>743.5980286395683</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X29" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>251.7598820467572</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="C30" t="n">
-        <v>77.30685276563017</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>353.6106250961269</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>207.0760671230118</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>627.7355178317791</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>627.7355178317791</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y30" t="n">
-        <v>419.9752190668252</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C32" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D32" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E32" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X32" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y32" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>533.6469426057913</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C33" t="n">
-        <v>533.6469426057913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>384.71253294454</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>225.4750779390845</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>78.94051996596951</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6780,16 +6782,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6807,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>533.6469426057913</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>533.6469426057913</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X33" t="n">
-        <v>533.6469426057913</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y33" t="n">
-        <v>533.6469426057913</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6968,19 +6970,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X35" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="V35" t="n">
+      <c r="Y35" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="W35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>125.0774898247174</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C36" t="n">
-        <v>125.0774898247174</v>
+        <v>414.0001870389441</v>
       </c>
       <c r="D36" t="n">
-        <v>125.0774898247174</v>
+        <v>265.0657773776928</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>105.8283223722373</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
         <v>964.0571555106362</v>
@@ -7047,19 +7049,19 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>360.2295980564601</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V36" t="n">
-        <v>125.0774898247174</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W36" t="n">
-        <v>125.0774898247174</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X36" t="n">
-        <v>125.0774898247174</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y36" t="n">
-        <v>125.0774898247174</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>284.0338015341832</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7257,16 +7259,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="W39" t="n">
-        <v>533.6469426057913</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X39" t="n">
-        <v>325.7954424002585</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y39" t="n">
-        <v>284.0338015341832</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="40">
@@ -7369,7 +7371,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
         <v>829.5248650203655</v>
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E41" t="n">
         <v>262.7299197543128</v>
@@ -7448,13 +7450,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="X41" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="Y41" t="n">
         <v>710.516763498309</v>
-      </c>
-      <c r="X41" t="n">
-        <v>467.067986854209</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>467.067986854209</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>344.6327430815143</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="C42" t="n">
-        <v>170.1797138003873</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="D42" t="n">
-        <v>170.1797138003873</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="E42" t="n">
-        <v>170.1797138003873</v>
+        <v>387.9535793117496</v>
       </c>
       <c r="F42" t="n">
-        <v>170.1797138003873</v>
+        <v>241.4190213386346</v>
       </c>
       <c r="G42" t="n">
-        <v>170.1797138003873</v>
+        <v>102.6881959212501</v>
       </c>
       <c r="H42" t="n">
-        <v>110.334904905842</v>
+        <v>102.6881959212501</v>
       </c>
       <c r="I42" t="n">
         <v>20.03527576299844</v>
@@ -7494,16 +7496,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>720.6083788665362</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y42" t="n">
-        <v>512.8480801015824</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7673,25 +7675,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W44" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7737,7 +7739,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
         <v>964.0571555106362</v>
@@ -7752,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>158.7661011803829</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>158.7661011803829</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>158.7661011803829</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7792,10 +7794,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
         <v>19.28114311021272</v>
@@ -7979,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8061,19 +8063,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>356.2611315939937</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8541,13 +8543,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,13 +8780,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>244.7225752110828</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8930,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O15" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9492,10 +9494,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>198.1125443848066</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9720,19 +9722,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9957,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -10191,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,19 +10430,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>349.0484638974528</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,10 +10676,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10905,19 +10907,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11142,19 +11144,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11385,10 +11387,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O45" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22592,10 +22594,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22604,7 +22606,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
@@ -22623,25 +22625,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22686,13 +22688,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>84.65665384546574</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22744,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22781,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="6">
@@ -22860,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22878,13 +22880,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>197.0990017157023</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>44.5329991677731</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23100,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23279,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>227.3726215175137</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23334,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>90.74620433203334</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23358,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23437,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23540,25 +23542,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>136.6259469638831</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23592,10 +23594,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23640,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23692,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>380.9243455904444</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23741,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23753,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23826,13 +23828,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23868,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>197.7981193194529</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23929,19 +23931,19 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>183.6421058297144</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23969,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>312.84732328326</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24011,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.9726225988569</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24093,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.10013888409016</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>135.0341266295844</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24209,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24251,16 +24253,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>148.0596218681135</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>139.5272757214993</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24291,19 +24293,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>26.5151993764422</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24333,7 +24335,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>161.5249499569701</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24342,7 +24344,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24351,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24403,13 +24405,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24449,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,10 +24460,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,25 +24487,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>181.0016451065613</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>347.4314726443769</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24522,16 +24524,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24573,22 +24575,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>114.8510008539294</v>
       </c>
       <c r="U27" t="n">
-        <v>76.030401874891</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24652,13 +24654,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24686,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,25 +24727,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>140.6346519250378</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,31 +24758,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>90.74620433203334</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>40.82317524195462</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24816,10 +24818,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24889,13 +24891,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24926,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>158.0503210826583</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24974,7 +24976,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>108.226679839754</v>
@@ -24996,19 +24998,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>78.28073407601141</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25047,22 +25049,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120115</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25208,19 +25210,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,16 +25235,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>52.90669720804131</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>60.13409625023739</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25287,10 +25289,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25321,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G37" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25400,19 +25402,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,13 +25438,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>172.6288712164514</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25451,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25488,7 +25490,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25521,10 +25523,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>41.31049342352063</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25536,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>164.3386713198899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25609,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25634,7 +25636,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
         <v>165.8617568640524</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>52.98908343089657</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.570241894745962</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,7 +25757,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25831,10 +25833,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25874,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>158.0503210826583</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25956,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>33.35172524210884</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="46">
@@ -26032,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490233.5289125029</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>99696.40351879939</v>
       </c>
       <c r="D2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="E2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="G2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="F2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="I2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="J2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="L2" t="n">
+        <v>99696.40351879933</v>
+      </c>
+      <c r="M2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="N2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="O2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="H2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.40351879942</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
         <v>8547.111069342402</v>
@@ -26433,13 +26435,13 @@
         <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
         <v>8547.111069342402</v>
@@ -26457,7 +26459,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37901.40784585242</v>
+        <v>-37901.4078458524</v>
       </c>
       <c r="C6" t="n">
         <v>42868.02368569532</v>
       </c>
       <c r="D6" t="n">
-        <v>42868.02368569529</v>
+        <v>42868.02368569531</v>
       </c>
       <c r="E6" t="n">
+        <v>76495.62368569529</v>
+      </c>
+      <c r="F6" t="n">
+        <v>76495.6236856953</v>
+      </c>
+      <c r="G6" t="n">
         <v>76495.62368569533</v>
       </c>
-      <c r="F6" t="n">
-        <v>76495.62368569529</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>76495.62368569535</v>
+      </c>
+      <c r="I6" t="n">
+        <v>76495.62368569527</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13435.68108658904</v>
+      </c>
+      <c r="K6" t="n">
+        <v>76495.62368569532</v>
+      </c>
+      <c r="L6" t="n">
+        <v>76495.62368569526</v>
+      </c>
+      <c r="M6" t="n">
+        <v>76495.62368569532</v>
+      </c>
+      <c r="N6" t="n">
+        <v>76495.62368569527</v>
+      </c>
+      <c r="O6" t="n">
         <v>76495.6236856953</v>
       </c>
-      <c r="H6" t="n">
-        <v>76495.62368569527</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="P6" t="n">
         <v>76495.6236856953</v>
-      </c>
-      <c r="J6" t="n">
-        <v>13435.68108658907</v>
-      </c>
-      <c r="K6" t="n">
-        <v>76495.62368569527</v>
-      </c>
-      <c r="L6" t="n">
-        <v>76495.62368569533</v>
-      </c>
-      <c r="M6" t="n">
-        <v>76495.6236856953</v>
-      </c>
-      <c r="N6" t="n">
-        <v>76495.62368569532</v>
-      </c>
-      <c r="O6" t="n">
-        <v>76495.62368569532</v>
-      </c>
-      <c r="P6" t="n">
-        <v>76495.62368569535</v>
       </c>
     </row>
   </sheetData>
@@ -34781,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>217.7067518141195</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35261,13 +35263,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35498,13 +35500,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>113.3808631277494</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35656,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36212,10 +36214,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>55.51629994036219</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36677,13 +36679,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>217.7067518141195</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,10 +37396,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37625,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37862,19 +37864,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38105,10 +38107,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439542.8206532585</v>
+        <v>337290.5109663217</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006065</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="3">
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -858,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>241.0142888776591</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,28 +977,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.583694061602047</v>
+        <v>25.07954848725872</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
     </row>
     <row r="9">
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -1426,10 +1426,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>41.7314554634327</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>56.69886123260541</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>159.3125043259865</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,25 +1651,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>9.73723617201896</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>29.90723668598428</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>124.8601740043187</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>88.55090549590537</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>65.1306020652372</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2222,13 +2222,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,47 +2335,47 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>10.15822114686772</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2566,61 +2566,61 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2687,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>85.31372784089217</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2806,16 +2806,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>212.2853856434421</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2879,19 +2879,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>96.52034192125602</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3040,19 +3040,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,28 +3073,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>50.05769526855308</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3164,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>89.98138655216526</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3195,52 +3195,52 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3347,16 +3347,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>84.93511614314649</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3435,58 +3435,58 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3520,58 +3520,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>50.46697834767995</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>184.6308886574542</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,68 +3739,68 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>19.7279353865638</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3827,22 +3827,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>81.82639095666912</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -4030,7 +4030,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4152,37 +4152,37 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X2" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="Y2" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="X2" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,19 +4415,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4506,13 +4506,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
         <v>19.28114311021272</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
         <v>262.7299197543128</v>
@@ -4591,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>787.171420448546</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C6" t="n">
-        <v>612.718391167419</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D6" t="n">
-        <v>463.7839815061678</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E6" t="n">
-        <v>304.5465265007123</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4655,13 +4655,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="Y6" t="n">
-        <v>955.386757468614</v>
+        <v>391.9193775183306</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4892,16 +4892,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>942.6594228129348</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>731.528039392485</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T11" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U11" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>251.7598820467572</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C12" t="n">
-        <v>77.30685276563017</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5129,43 +5129,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U12" t="n">
-        <v>862.8876260635219</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V12" t="n">
-        <v>627.7355178317791</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W12" t="n">
-        <v>627.7355178317791</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X12" t="n">
-        <v>627.7355178317791</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y12" t="n">
-        <v>419.9752190668252</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5217,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>942.6594228129348</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>731.528039392485</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U14" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V14" t="n">
-        <v>19.28114311021272</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W14" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X14" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>726.0875267598396</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="C15" t="n">
-        <v>726.0875267598396</v>
+        <v>421.0696464340549</v>
       </c>
       <c r="D15" t="n">
-        <v>577.1531170985884</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E15" t="n">
-        <v>417.9156620931329</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F15" t="n">
-        <v>271.3811041200179</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5366,13 +5366,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5384,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y15" t="n">
-        <v>756.2968567456824</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="16">
@@ -5463,16 +5463,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>962.2293816994886</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C17" t="n">
-        <v>962.2293816994886</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D17" t="n">
-        <v>962.2293816994886</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.4806348497715</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.4806348497715</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,16 +5600,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>497.8820279860555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>262.7299197543128</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6959718698396</v>
       </c>
     </row>
     <row r="19">
@@ -5691,19 +5691,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5782,22 +5782,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5843,7 +5843,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
         <v>964.0571555106362</v>
@@ -5861,19 +5861,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>898.2686685760532</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>670.0450503124422</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>434.8929420806995</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>434.8929420806995</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
         <v>19.28114311021272</v>
@@ -5937,13 +5937,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>718.7806050553886</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C23" t="n">
-        <v>718.7806050553886</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D23" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>962.2293816994886</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V23" t="n">
-        <v>962.2293816994886</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W23" t="n">
-        <v>962.2293816994886</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X23" t="n">
-        <v>962.2293816994886</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y23" t="n">
-        <v>718.7806050553886</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
         <v>19.28114311021272</v>
@@ -6071,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>953.7963260693557</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>953.7963260693557</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>953.7963260693557</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>718.6442178376129</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>718.6442178376129</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>718.6442178376129</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>510.883919072659</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
         <v>19.28114311021272</v>
@@ -6311,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
         <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>877.8816728430684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>877.8816728430684</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>877.8816728430684</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>877.8816728430684</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>877.8816728430684</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>670.1213740781145</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6414,10 +6414,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W29" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X29" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y29" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>353.6106250961269</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>207.0760671230118</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6551,10 +6551,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X30" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6651,10 +6651,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C32" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W32" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X32" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y32" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="33">
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>69.84447166430675</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
         <v>19.28114311021272</v>
@@ -6788,10 +6788,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6812,19 +6812,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W33" t="n">
-        <v>485.4562706347935</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X33" t="n">
-        <v>277.6047704292607</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y33" t="n">
-        <v>69.84447166430675</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6979,10 +6979,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>414.0001870389441</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>265.0657773776928</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>105.8283223722373</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U36" t="n">
-        <v>588.4532163200711</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V36" t="n">
-        <v>588.4532163200711</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W36" t="n">
-        <v>588.4532163200711</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T38" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7256,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7286,19 +7286,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>777.5613083818946</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>777.5613083818946</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>777.5613083818946</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>569.7098081763618</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>361.9495094114078</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X41" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y41" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>547.1910343172051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>547.1910343172051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>547.1910343172051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>387.9535793117496</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>241.4190213386346</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>102.6881959212501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>102.6881959212501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>547.1910343172051</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>547.1910343172051</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>547.1910343172051</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7596,25 +7596,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U44" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V44" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W44" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X44" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7760,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
         <v>19.28114311021272</v>
@@ -7830,28 +7830,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8063,7 +8063,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,13 +8072,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N12" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9014,16 +9014,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9248,10 +9248,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9260,7 +9260,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9491,10 +9491,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O21" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10199,13 +10199,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10436,13 +10436,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,13 +10676,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>368.5691090902119</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -22561,10 +22561,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22594,10 +22594,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="3">
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,19 +22676,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22746,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>113.6687527430239</v>
@@ -22831,19 +22831,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,28 +22865,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22925,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>197.0990017157023</v>
+        <v>180.6031472900456</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>333.8123701683061</v>
       </c>
     </row>
     <row r="9">
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,19 +23150,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>209.6141974444038</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>90.74620433203334</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>92.3824788349331</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23439,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.32518834398849</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,25 +23539,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>339.503732545394</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,19 +23573,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>136.6259469638831</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>47.84832498399706</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23636,13 +23636,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23703,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>380.9243455904444</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>58.89416006873338</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23931,10 +23931,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23943,10 +23943,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>183.6421058297144</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,19 +23971,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>312.84732328326</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24022,13 +24022,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24101,7 +24101,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>135.0341266295844</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24110,13 +24110,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>181.0464140131996</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24186,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24211,10 +24211,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24223,10 +24223,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>148.0596218681135</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24262,7 +24262,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24335,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>161.5249499569701</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24454,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>347.4314726443769</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24575,22 +24575,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>114.8510008539294</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24654,13 +24654,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24694,16 +24694,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>203.0173518716929</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24736,16 +24736,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24767,19 +24767,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>40.82317524195462</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24809,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24891,13 +24891,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24928,19 +24928,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,28 +24961,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>122.6508037197626</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25052,16 +25052,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>115.7915986513122</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25235,16 +25235,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>60.13409625023739</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,22 +25283,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25408,13 +25408,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T38" t="n">
-        <v>172.6288712164514</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25487,7 +25487,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>82.43643527161383</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25526,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>41.31049342352063</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25611,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>345.5449563844438</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25681,13 +25681,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25715,22 +25715,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>7.570241894745962</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26040,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125027</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125029</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="C2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="D2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="E2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="F2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="G2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="H2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="L2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="M2" t="n">
+        <v>99696.40351879933</v>
+      </c>
+      <c r="N2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="G2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99696.40351879942</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>99696.40351879934</v>
       </c>
-      <c r="J2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>99696.40351879939</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.40351879933</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.40351879937</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37901.4078458524</v>
+        <v>-50119.41846589288</v>
       </c>
       <c r="C6" t="n">
-        <v>42868.02368569532</v>
+        <v>30650.01306565486</v>
       </c>
       <c r="D6" t="n">
-        <v>42868.02368569531</v>
+        <v>30650.01306565485</v>
       </c>
       <c r="E6" t="n">
-        <v>76495.62368569529</v>
+        <v>64277.6130656548</v>
       </c>
       <c r="F6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565486</v>
       </c>
       <c r="G6" t="n">
-        <v>76495.62368569533</v>
+        <v>64277.61306565486</v>
       </c>
       <c r="H6" t="n">
-        <v>76495.62368569535</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="I6" t="n">
-        <v>76495.62368569527</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="J6" t="n">
-        <v>13435.68108658904</v>
+        <v>1217.670466548589</v>
       </c>
       <c r="K6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="L6" t="n">
-        <v>76495.62368569526</v>
+        <v>64277.61306565486</v>
       </c>
       <c r="M6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565479</v>
       </c>
       <c r="N6" t="n">
-        <v>76495.62368569527</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="O6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565481</v>
       </c>
       <c r="P6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565486</v>
       </c>
     </row>
   </sheetData>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,13 +34792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35184,7 +35184,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N12" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35980,7 +35980,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36919,13 +36919,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37083,7 +37083,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37156,13 +37156,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37396,13 +37396,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337290.5109663217</v>
+        <v>429292.3595494202</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514375</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5668630.558955722</v>
+        <v>5668630.558955723</v>
       </c>
     </row>
     <row r="11">
@@ -673,61 +673,61 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>212.2853856434421</v>
+        <v>70.34400780127524</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -800,10 +800,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -901,70 +901,70 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S5" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T5" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>112.3289263072337</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>158.6681430322184</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>25.07954848725872</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>52.42556848774752</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>225.6892550292939</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>241.0142888776591</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>41.7314554634327</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>21.42217751258917</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>159.3125043259865</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>9.73723617201896</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>124.8601740043187</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>144.2395975293023</v>
       </c>
       <c r="W15" t="n">
         <v>241.0142888776591</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E17" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="F17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>88.55090549590537</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>4.212569466204348</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>241.0142888776591</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2222,13 +2222,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>70.64856914772001</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="22">
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>55.66595177720879</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
@@ -2599,28 +2599,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>202.2946864288972</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2687,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>241.0142888776591</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
@@ -3049,10 +3049,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="33">
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>157.9712663400187</v>
       </c>
       <c r="X33" t="n">
-        <v>89.98138655216526</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
         <v>29.79900896488251</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3514,64 +3514,64 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>130.7311690450601</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>19.7279353865638</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3784,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3824,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8583033597627</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3912,49 +3912,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,61 +3988,61 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G44" t="n">
+      <c r="X44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>94.41048699370604</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S44" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4064,22 +4064,22 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>10.10442805943248</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4433,22 +4433,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>360.2295980564601</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>125.0774898247174</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X3" t="n">
         <v>19.28114311021272</v>
@@ -4515,10 +4515,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C6" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D6" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E6" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>660.701031422288</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>660.701031422288</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>417.2522547781879</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X6" t="n">
-        <v>417.2522547781879</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y6" t="n">
-        <v>391.9193775183306</v>
+        <v>292.9211302503287</v>
       </c>
     </row>
     <row r="7">
@@ -4752,16 +4752,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>497.8820279860555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>262.7299197543128</v>
+        <v>736.0882110366019</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>492.6394343925018</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>284.787934186969</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>284.787934186969</v>
       </c>
     </row>
     <row r="10">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5068,25 +5068,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>193.7341723913397</v>
+        <v>521.1447485139397</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>346.6917192328127</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>346.6917192328127</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4542642273572</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>40.91970625424219</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>40.91970625424219</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>40.91970625424219</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5123,22 +5123,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5147,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>562.4161926976942</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W12" t="n">
-        <v>401.4944711562937</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X12" t="n">
-        <v>401.4944711562937</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y12" t="n">
-        <v>193.7341723913397</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="13">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>718.7806050553886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C14" t="n">
-        <v>718.7806050553886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D14" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>728.6161971483371</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V14" t="n">
-        <v>728.6161971483371</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W14" t="n">
-        <v>718.7806050553886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X14" t="n">
-        <v>718.7806050553886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y14" t="n">
-        <v>718.7806050553886</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>547.1910343172051</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C15" t="n">
-        <v>421.0696464340549</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5366,13 +5366,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5393,16 +5393,16 @@
         <v>790.6398109613051</v>
       </c>
       <c r="V15" t="n">
-        <v>790.6398109613051</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="W15" t="n">
-        <v>547.1910343172051</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X15" t="n">
-        <v>547.1910343172051</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y15" t="n">
-        <v>547.1910343172051</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="16">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C17" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D17" t="n">
-        <v>467.067986854209</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5542,25 +5542,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>109.4806348497715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>109.4806348497715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,16 +5600,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>858.6325053905882</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>630.4088871269773</v>
       </c>
       <c r="V18" t="n">
-        <v>728.9050472788936</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="W18" t="n">
-        <v>485.4562706347935</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X18" t="n">
-        <v>485.4562706347935</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y18" t="n">
-        <v>277.6959718698396</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="19">
@@ -5706,10 +5706,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,19 +5861,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>227.1326433157456</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
         <v>19.28114311021272</v>
@@ -5937,7 +5937,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>559.1338160830064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V23" t="n">
-        <v>559.1338160830064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W23" t="n">
-        <v>559.1338160830064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X23" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6077,16 +6077,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,22 +6095,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>907.8289213922435</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
         <v>19.28114311021272</v>
@@ -6165,25 +6165,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>262.7299197543128</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6314,10 +6314,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6335,19 +6335,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
         <v>19.28114311021272</v>
@@ -6414,22 +6414,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D29" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X29" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6545,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6569,22 +6569,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>705.7335281915883</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V30" t="n">
-        <v>470.5814199598456</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>227.1326433157456</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
         <v>19.28114311021272</v>
@@ -6651,7 +6651,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6806,22 +6806,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>735.8335372470253</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W33" t="n">
-        <v>492.3847606029253</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X33" t="n">
-        <v>401.4944711562937</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y33" t="n">
         <v>193.7341723913397</v>
@@ -6888,13 +6888,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E35" t="n">
-        <v>477.1596022224361</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>495.259035872464</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6967,22 +6967,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7043,7 +7043,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
         <v>933.9571464551993</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.38115216564972</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C39" t="n">
-        <v>49.38115216564972</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D39" t="n">
-        <v>49.38115216564972</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E39" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7265,7 +7265,7 @@
         <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>629.8188749653011</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>386.3700983212011</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.38115216564972</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="40">
@@ -7371,7 +7371,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
         <v>19.28114311021272</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T41" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U41" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V41" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>314.750110744579</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F42" t="n">
         <v>19.28114311021272</v>
@@ -7493,22 +7493,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7526,16 +7526,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>314.750110744579</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>314.750110744579</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7602,19 +7602,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>601.5428246748836</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>601.5428246748836</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>601.5428246748836</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>601.5428246748836</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>601.5428246748836</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>601.5428246748836</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>601.5428246748836</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
         <v>725.4530095217538</v>
@@ -7757,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>914.2479596093278</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V45" t="n">
-        <v>679.0958513775852</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W45" t="n">
-        <v>435.6470747334852</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X45" t="n">
-        <v>227.7955745279523</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>518.4217842253022</v>
       </c>
     </row>
     <row r="46">
@@ -7830,13 +7830,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
         <v>19.28114311021272</v>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,16 +9014,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O15" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9248,10 +9248,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M18" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9260,7 +9260,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>371.3463732493024</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,13 +10676,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10913,10 +10913,10 @@
         <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M42" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N45" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -22561,10 +22561,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,16 +22591,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.9525530126115</v>
+        <v>315.8939308547783</v>
       </c>
     </row>
     <row r="3">
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22688,10 +22688,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>201.1924361087609</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22755,13 +22755,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22789,7 +22789,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22831,28 +22831,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>215.4233321629012</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>7.865040617648987</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22883,10 +22883,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>180.6031472900456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22992,7 +22992,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>333.8123701683061</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23120,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,22 +23150,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>7.111332120131351</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>174.288448637476</v>
@@ -23278,7 +23278,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23308,13 +23308,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>209.6141974444038</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23345,10 +23345,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23357,7 +23357,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>67.97445533882592</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23387,19 +23387,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>92.3824788349331</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23500,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>252.344814527994</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>339.503732545394</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23576,10 +23576,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>47.84832498399706</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23588,16 +23588,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23633,7 +23633,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>88.560989620123</v>
       </c>
       <c r="W15" t="n">
         <v>10.68069428326055</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>328.2817459595876</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23782,13 +23782,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23816,7 +23816,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>58.89416006873338</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>195.9521592286173</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23946,13 +23946,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>378.6650540150651</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>170.6702810763838</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>10.33136403017744</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24101,7 +24101,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24110,13 +24110,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>181.0464140131996</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="22">
@@ -24177,10 +24177,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>302.2574731329353</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>139.5272757214993</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24335,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>116.017219326629</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24405,13 +24405,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24454,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
@@ -24487,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>6.725383157348119</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24575,13 +24575,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>143.2478283578182</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24654,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>224.9573404408503</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>98.46051323810809</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24736,13 +24736,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24809,13 +24809,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>141.8841621389553</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24891,10 +24891,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24928,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
@@ -24937,10 +24937,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>120.0869518323295</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="33">
@@ -25046,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>93.72371682090088</v>
       </c>
       <c r="X33" t="n">
-        <v>115.7915986513122</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>109.2709771587974</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25207,7 +25207,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25283,10 +25283,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>141.8841621389553</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25402,10 +25402,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25435,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>6.725383157348119</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25478,7 +25478,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25487,7 +25487,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>82.43643527161383</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25523,13 +25523,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>102.0694181043652</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25611,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>345.5449563844438</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,16 +25639,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25672,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25712,13 +25712,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25766,16 +25766,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>29.91468184371473</v>
       </c>
       <c r="Y42" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>116.0654025766999</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25909,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25924,13 +25924,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25952,22 +25952,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>147.5406523959685</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25997,22 +25997,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>176.6302781386795</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490233.5289125027</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125027</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125027</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="C2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="D2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="E2" t="n">
+        <v>99696.40351879943</v>
+      </c>
+      <c r="F2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="G2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="H2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="E2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99696.40351879936</v>
       </c>
       <c r="J2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879933</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="N2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="P2" t="n">
         <v>99696.40351879939</v>
@@ -26453,13 +26453,13 @@
         <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="O4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50119.41846589288</v>
+        <v>-39123.20890785643</v>
       </c>
       <c r="C6" t="n">
-        <v>30650.01306565486</v>
+        <v>41646.22262369128</v>
       </c>
       <c r="D6" t="n">
-        <v>30650.01306565485</v>
+        <v>41646.22262369129</v>
       </c>
       <c r="E6" t="n">
-        <v>64277.6130656548</v>
+        <v>75273.82262369132</v>
       </c>
       <c r="F6" t="n">
-        <v>64277.61306565486</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="G6" t="n">
-        <v>64277.61306565486</v>
+        <v>75273.8226236913</v>
       </c>
       <c r="H6" t="n">
-        <v>64277.61306565484</v>
+        <v>75273.82262369127</v>
       </c>
       <c r="I6" t="n">
-        <v>64277.61306565483</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="J6" t="n">
-        <v>1217.670466548589</v>
+        <v>12213.88002458501</v>
       </c>
       <c r="K6" t="n">
-        <v>64277.61306565483</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="L6" t="n">
-        <v>64277.61306565486</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="M6" t="n">
-        <v>64277.61306565479</v>
+        <v>75273.82262369129</v>
       </c>
       <c r="N6" t="n">
-        <v>64277.61306565484</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="O6" t="n">
-        <v>64277.61306565481</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="P6" t="n">
-        <v>64277.61306565486</v>
+        <v>75273.82262369127</v>
       </c>
     </row>
   </sheetData>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N15" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O15" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M18" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35980,7 +35980,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36211,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>240.0046611659691</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37083,7 +37083,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37396,13 +37396,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M42" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N45" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
